--- a/kcaroo-converted-data.xlsx
+++ b/kcaroo-converted-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19110" windowHeight="11820" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19110" windowHeight="11820" firstSheet="16" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="contact_type" sheetId="1" r:id="rId1"/>
@@ -1761,6 +1761,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1770,8 +1772,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2070,12 +2070,12 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2096,13 +2096,13 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -2111,13 +2111,13 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -2126,20 +2126,15 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
@@ -2173,13 +2168,13 @@
       <c r="B2" t="s">
         <v>397</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -2189,13 +2184,13 @@
       <c r="B3" t="s">
         <v>399</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -2205,13 +2200,13 @@
       <c r="B4" t="s">
         <v>401</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
@@ -2349,7 +2344,7 @@
       <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="9" t="s">
         <v>535</v>
       </c>
       <c r="I2">
@@ -2477,76 +2472,76 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="10" t="s">
         <v>431</v>
       </c>
     </row>
@@ -2589,13 +2584,13 @@
       <c r="B2" t="s">
         <v>442</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -2633,7 +2628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:I3"/>
     </sheetView>
   </sheetViews>
@@ -2835,13 +2830,13 @@
       <c r="B2" t="s">
         <v>453</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -2851,13 +2846,13 @@
       <c r="B3" t="s">
         <v>454</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -2867,13 +2862,13 @@
       <c r="B4" t="s">
         <v>455</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
@@ -3188,10 +3183,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3250,13 +3245,6 @@
         <v>1</v>
       </c>
       <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3291,13 +3279,13 @@
       <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -3307,13 +3295,13 @@
       <c r="B3" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -3323,13 +3311,13 @@
       <c r="B4" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
@@ -3339,13 +3327,13 @@
       <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
@@ -3355,13 +3343,13 @@
       <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
@@ -3371,13 +3359,13 @@
       <c r="B7" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
@@ -3387,13 +3375,13 @@
       <c r="B8" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
@@ -3403,13 +3391,13 @@
       <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
@@ -3419,13 +3407,13 @@
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3471,13 +3459,13 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -3487,13 +3475,13 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -3503,13 +3491,13 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3733,13 +3721,13 @@
       <c r="B2" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -3749,13 +3737,13 @@
       <c r="B3" t="s">
         <v>369</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3794,13 +3782,13 @@
       <c r="B2" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -3810,13 +3798,13 @@
       <c r="B3" t="s">
         <v>369</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7162,13 +7150,13 @@
       <c r="B2" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -7178,13 +7166,13 @@
       <c r="B3" t="s">
         <v>369</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -7194,13 +7182,13 @@
       <c r="B4" t="s">
         <v>371</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
@@ -7288,13 +7276,13 @@
       <c r="B2" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -7304,13 +7292,13 @@
       <c r="B3" t="s">
         <v>381</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -7320,13 +7308,13 @@
       <c r="B4" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
@@ -7414,13 +7402,13 @@
       <c r="B2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -7430,13 +7418,13 @@
       <c r="B3" t="s">
         <v>390</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -7446,13 +7434,13 @@
       <c r="B4" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
@@ -7504,13 +7492,13 @@
       <c r="B2" t="s">
         <v>391</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -7520,13 +7508,13 @@
       <c r="B3" t="s">
         <v>393</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -7536,13 +7524,13 @@
       <c r="B4" t="s">
         <v>395</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/kcaroo-converted-data.xlsx
+++ b/kcaroo-converted-data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19110" windowHeight="11820" firstSheet="16" activeTab="17"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19110" windowHeight="11820" firstSheet="15" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="contact_type" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="vehicle_info" sheetId="17" r:id="rId22"/>
     <sheet name="stock_master" sheetId="19" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1620,9 +1620,6 @@
     <t>address_3</t>
   </si>
   <si>
-    <t>postal_code</t>
-  </si>
-  <si>
     <t>full_name_1</t>
   </si>
   <si>
@@ -1663,13 +1660,16 @@
   </si>
   <si>
     <t>Subaru</t>
+  </si>
+  <si>
+    <t>postal_code_number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1779,6 +1779,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1857,6 +1862,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1891,6 +1897,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2066,19 +2073,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2089,7 +2096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2104,7 +2111,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2119,7 +2126,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2141,16 +2148,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2161,7 +2168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2176,7 +2183,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -2192,7 +2199,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A7" si="0">A3+1</f>
         <v>3</v>
@@ -2208,7 +2215,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2220,7 +2227,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2232,7 +2239,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2255,14 +2262,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -2280,7 +2287,7 @@
     <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2291,16 +2298,16 @@
         <v>434</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>534</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>435</v>
@@ -2324,7 +2331,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2332,10 +2339,10 @@
         <v>399</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7">
@@ -2345,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2363,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -2375,14 +2382,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
@@ -2391,7 +2398,7 @@
     <col min="20" max="25" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2468,7 +2475,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2552,21 +2559,21 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2577,7 +2584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2592,7 +2599,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -2604,7 +2611,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>3</v>
@@ -2625,20 +2632,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2667,7 +2674,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2696,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -2732,14 +2739,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -2749,7 +2756,7 @@
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2769,18 +2776,18 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="E2" s="7">
         <v>1234567</v>
@@ -2790,7 +2797,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2803,16 +2810,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2823,7 +2830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2838,7 +2845,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -2854,7 +2861,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A8" si="0">A3+1</f>
         <v>3</v>
@@ -2870,7 +2877,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2882,7 +2889,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2894,7 +2901,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2906,7 +2913,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2929,20 +2936,20 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2953,7 +2960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2968,7 +2975,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -2984,7 +2991,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A15" si="0">A3+1</f>
         <v>3</v>
@@ -3000,7 +3007,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3016,7 +3023,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3032,7 +3039,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3048,7 +3055,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3064,7 +3071,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="25.5" customHeight="1">
+    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3080,7 +3087,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3096,7 +3103,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="25.5" customHeight="1">
+    <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3112,7 +3119,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3128,7 +3135,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="25.5">
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3144,7 +3151,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3160,7 +3167,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3182,14 +3189,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
@@ -3199,7 +3206,7 @@
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3222,12 +3229,12 @@
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3252,16 +3259,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="C10:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3272,7 +3279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3287,7 +3294,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -3303,7 +3310,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>3</v>
@@ -3319,7 +3326,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3335,7 +3342,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3351,7 +3358,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3367,7 +3374,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3383,7 +3390,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3399,7 +3406,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3432,16 +3439,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:G3"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3452,7 +3459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3467,7 +3474,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -3483,7 +3490,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>3</v>
@@ -3510,16 +3517,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3530,7 +3537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3545,7 +3552,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -3561,7 +3568,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A6" si="0">A3+1</f>
         <v>3</v>
@@ -3573,7 +3580,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3585,7 +3592,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3603,16 +3610,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3623,7 +3630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3637,7 +3644,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -3652,7 +3659,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A6" si="0">A3+1</f>
         <v>3</v>
@@ -3664,7 +3671,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3676,7 +3683,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3694,16 +3701,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3714,7 +3721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3729,7 +3736,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -3755,16 +3762,16 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3775,7 +3782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3790,7 +3797,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -3816,19 +3823,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3836,7 +3843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3847,7 +3854,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -3859,7 +3866,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -3871,7 +3878,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3880,7 +3887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3889,7 +3896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3898,7 +3905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3907,7 +3914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3916,7 +3923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3925,7 +3932,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3934,7 +3941,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3943,7 +3950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3952,7 +3959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3961,7 +3968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3970,7 +3977,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3979,7 +3986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3988,7 +3995,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3997,7 +4004,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4006,7 +4013,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4015,7 +4022,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4024,7 +4031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4033,7 +4040,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4042,7 +4049,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4051,7 +4058,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4060,7 +4067,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4069,7 +4076,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4078,7 +4085,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4087,7 +4094,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4096,7 +4103,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4105,7 +4112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4114,7 +4121,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4123,7 +4130,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4132,7 +4139,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4141,7 +4148,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4150,7 +4157,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4159,7 +4166,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4168,7 +4175,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4177,7 +4184,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4186,7 +4193,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4195,7 +4202,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4204,7 +4211,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4213,7 +4220,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4222,7 +4229,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4231,7 +4238,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4240,7 +4247,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4249,7 +4256,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4258,7 +4265,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4267,7 +4274,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4276,7 +4283,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4285,7 +4292,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4294,7 +4301,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4303,7 +4310,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4312,7 +4319,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4321,7 +4328,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4330,7 +4337,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4339,7 +4346,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4348,7 +4355,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4357,7 +4364,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4366,7 +4373,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4375,7 +4382,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4384,7 +4391,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4393,7 +4400,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4402,7 +4409,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4411,7 +4418,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4420,7 +4427,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4429,7 +4436,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -4438,7 +4445,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>67</v>
@@ -4447,7 +4454,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4456,7 +4463,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4465,7 +4472,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4474,7 +4481,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4483,7 +4490,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4492,7 +4499,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4501,7 +4508,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4510,7 +4517,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4519,7 +4526,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4528,7 +4535,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4537,7 +4544,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4546,7 +4553,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4555,7 +4562,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4564,7 +4571,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4573,7 +4580,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4582,7 +4589,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4591,7 +4598,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4600,7 +4607,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4609,7 +4616,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4618,7 +4625,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4627,7 +4634,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4636,7 +4643,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4645,7 +4652,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4654,7 +4661,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4663,7 +4670,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4672,7 +4679,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4681,7 +4688,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4690,7 +4697,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4699,7 +4706,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4708,7 +4715,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4717,7 +4724,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4726,7 +4733,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4735,7 +4742,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4744,7 +4751,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4753,7 +4760,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4762,7 +4769,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4771,7 +4778,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4780,7 +4787,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4789,7 +4796,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4798,7 +4805,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4807,7 +4814,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4816,7 +4823,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4825,7 +4832,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4834,7 +4841,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4843,7 +4850,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -4852,7 +4859,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -4861,7 +4868,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -4870,7 +4877,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -4879,7 +4886,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -4888,7 +4895,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -4897,7 +4904,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -4906,7 +4913,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -4915,7 +4922,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -4924,7 +4931,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -4933,7 +4940,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -4942,7 +4949,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -4951,7 +4958,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -4960,7 +4967,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -4969,7 +4976,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -4978,7 +4985,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -4987,7 +4994,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -4996,7 +5003,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -5005,7 +5012,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -5014,7 +5021,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132:A178" si="2">A131+1</f>
         <v>131</v>
@@ -5023,7 +5030,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -5032,7 +5039,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -5041,7 +5048,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -5050,7 +5057,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -5059,7 +5066,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -5068,7 +5075,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -5077,7 +5084,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -5086,7 +5093,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -5095,7 +5102,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -5104,7 +5111,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -5113,7 +5120,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -5122,7 +5129,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -5131,7 +5138,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -5140,7 +5147,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -5149,7 +5156,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -5158,7 +5165,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -5167,7 +5174,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -5176,7 +5183,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -5185,7 +5192,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -5194,7 +5201,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -5203,7 +5210,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -5212,7 +5219,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -5221,7 +5228,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -5230,7 +5237,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -5239,7 +5246,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -5248,7 +5255,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -5257,7 +5264,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -5266,7 +5273,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -5275,7 +5282,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -5284,7 +5291,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -5293,7 +5300,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -5302,7 +5309,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -5311,7 +5318,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -5320,7 +5327,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -5329,7 +5336,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -5338,7 +5345,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -5347,7 +5354,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -5356,7 +5363,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -5365,7 +5372,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -5374,7 +5381,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -5383,7 +5390,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -5392,7 +5399,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -5401,7 +5408,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -5410,7 +5417,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -5419,7 +5426,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -5428,7 +5435,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -5443,20 +5450,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5473,18 +5481,18 @@
         <v>441</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" t="s">
         <v>529</v>
-      </c>
-      <c r="C2" t="s">
-        <v>530</v>
       </c>
       <c r="E2">
         <v>136</v>
@@ -5499,16 +5507,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5516,7 +5524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5527,7 +5535,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -5539,7 +5547,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -5551,7 +5559,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5560,7 +5568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5569,7 +5577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5578,7 +5586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5587,7 +5595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5596,7 +5604,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5605,7 +5613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5614,7 +5622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5623,7 +5631,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5632,7 +5640,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5641,7 +5649,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5650,7 +5658,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5659,7 +5667,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5668,7 +5676,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5677,7 +5685,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5686,7 +5694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5695,7 +5703,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5704,7 +5712,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5713,7 +5721,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5722,7 +5730,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5731,7 +5739,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5740,7 +5748,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5749,7 +5757,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5758,7 +5766,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5767,7 +5775,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5776,7 +5784,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5785,7 +5793,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5794,7 +5802,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5803,7 +5811,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5812,7 +5820,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5821,7 +5829,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5830,7 +5838,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5839,7 +5847,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5848,7 +5856,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5857,7 +5865,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5866,7 +5874,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5875,7 +5883,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5884,7 +5892,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5893,7 +5901,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5902,7 +5910,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5911,7 +5919,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5920,7 +5928,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5929,7 +5937,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5938,7 +5946,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5947,7 +5955,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5956,7 +5964,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5965,7 +5973,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5974,7 +5982,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -5983,7 +5991,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -5992,7 +6000,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -6001,7 +6009,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -6010,7 +6018,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -6019,7 +6027,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -6028,7 +6036,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -6037,7 +6045,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -6046,7 +6054,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -6055,7 +6063,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -6064,7 +6072,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -6073,7 +6081,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -6082,7 +6090,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -6091,7 +6099,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -6100,7 +6108,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -6109,7 +6117,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -6118,7 +6126,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>67</v>
@@ -6127,7 +6135,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -6136,7 +6144,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -6145,7 +6153,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -6154,7 +6162,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -6163,7 +6171,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -6172,7 +6180,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -6181,7 +6189,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -6190,7 +6198,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -6199,7 +6207,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -6208,7 +6216,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -6217,7 +6225,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -6226,7 +6234,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -6235,7 +6243,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -6244,7 +6252,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -6253,7 +6261,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -6262,7 +6270,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -6271,7 +6279,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -6280,7 +6288,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -6289,7 +6297,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -6298,7 +6306,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -6307,7 +6315,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -6316,7 +6324,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -6325,7 +6333,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6334,7 +6342,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -6343,7 +6351,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -6352,7 +6360,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -6361,7 +6369,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -6370,7 +6378,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -6379,7 +6387,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -6388,7 +6396,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -6397,7 +6405,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -6406,7 +6414,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -6415,7 +6423,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -6424,7 +6432,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -6433,7 +6441,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -6442,7 +6450,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -6451,7 +6459,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -6460,7 +6468,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -6469,7 +6477,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -6478,7 +6486,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -6487,7 +6495,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -6496,7 +6504,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -6505,7 +6513,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -6514,7 +6522,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -6523,7 +6531,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -6532,7 +6540,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -6541,7 +6549,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -6550,7 +6558,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -6559,7 +6567,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -6568,7 +6576,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -6577,7 +6585,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -6586,7 +6594,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -6595,7 +6603,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -6604,7 +6612,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -6613,7 +6621,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -6622,7 +6630,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -6631,7 +6639,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -6640,7 +6648,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -6649,7 +6657,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -6658,7 +6666,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -6667,7 +6675,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -6676,7 +6684,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -6685,7 +6693,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -6694,7 +6702,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132:A178" si="2">A131+1</f>
         <v>131</v>
@@ -6703,7 +6711,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -6712,7 +6720,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -6721,7 +6729,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -6730,7 +6738,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -6739,7 +6747,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -6748,7 +6756,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -6757,7 +6765,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -6766,7 +6774,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -6775,7 +6783,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -6784,7 +6792,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -6793,7 +6801,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -6802,7 +6810,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -6811,7 +6819,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -6820,7 +6828,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -6829,7 +6837,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -6838,7 +6846,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -6847,7 +6855,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -6856,7 +6864,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -6865,7 +6873,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -6874,7 +6882,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -6883,7 +6891,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -6892,7 +6900,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -6901,7 +6909,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -6910,7 +6918,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -6919,7 +6927,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -6928,7 +6936,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -6937,7 +6945,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -6946,7 +6954,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -6955,7 +6963,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -6964,7 +6972,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -6973,7 +6981,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -6982,7 +6990,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -6991,7 +6999,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -7000,7 +7008,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -7009,7 +7017,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -7018,7 +7026,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -7027,7 +7035,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -7036,7 +7044,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -7045,7 +7053,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -7054,7 +7062,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -7063,7 +7071,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -7072,7 +7080,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -7081,7 +7089,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -7090,7 +7098,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -7099,7 +7107,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -7108,7 +7116,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -7123,16 +7131,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7143,7 +7151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7158,7 +7166,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -7174,7 +7182,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A8" si="0">A3+1</f>
         <v>3</v>
@@ -7190,7 +7198,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7202,7 +7210,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7214,7 +7222,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7226,7 +7234,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7249,16 +7257,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7269,7 +7277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7284,7 +7292,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -7300,7 +7308,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A8" si="0">A3+1</f>
         <v>3</v>
@@ -7316,7 +7324,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7328,7 +7336,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7340,7 +7348,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7352,7 +7360,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7375,16 +7383,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7395,7 +7403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7410,7 +7418,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -7426,7 +7434,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A5" si="0">A3+1</f>
         <v>3</v>
@@ -7442,7 +7450,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7465,16 +7473,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7485,7 +7493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7500,7 +7508,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -7516,7 +7524,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>3</v>
